--- a/biology/Botanique/Capsule_(botanique)/Capsule_(botanique).xlsx
+++ b/biology/Botanique/Capsule_(botanique)/Capsule_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, une capsule est :
 chez les angiospermes un fruit sec déhiscent s'ouvrant par deux axes de déhiscence et contenant les graines;
@@ -514,9 +526,11 @@
           <t>Types de placentation et modes de déhiscence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le type de placentation et le mode de déhiscence, on peut distinguer différentes catégories de capsules[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le type de placentation et le mode de déhiscence, on peut distinguer différentes catégories de capsules :
 déhiscence septicide : la déhiscence se fait par des fentes le long des lignes de suture des carpelles, qui se trouvent ainsi séparés (cas de la digitale) ;
 déhiscence loculicide : les fentes se situent au milieu de chaque carpelle (cas de la tulipe)
 déhiscence à fentes paraplacentaires : la déhiscence se fait par des valves stériles, les graines restant solidaires de la structure interne du fruit ; cas de certaines orchidées et des plantes à siliques ;
